--- a/medicine/Enfance/Paul_Zindel/Paul_Zindel.xlsx
+++ b/medicine/Enfance/Paul_Zindel/Paul_Zindel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Zindel, né le 15 mai 1936 dans l'arrondissement new-yorkais de Staten Island et mort le 27 mars 2003) à New York, est un dramaturge, écrivain et scénariste américain, auteur de plusieurs romans de littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une maîtrise de chimie, il devient professeur de chimie dans un lycée de Staten Island[1]. Intéressé par le théâtre, il écrit des pièces qu'il fait jouer à New York avec succès.
-Écrite en 1964 et montée au Alley Theatre de Houston, mais n'ayant été produite Off-Broadway qu'en 1971, sa pièce L'Effet des rayons gamma sur les vieux-garçons (The Effect of Gamma Rays on Man-In-The-Moon Marigolds) reçoit le prix Pulitzer[2]. Enthousiasmée par cette pièce qu'elle a vue à Houston, une éditrice de littérature d'enfance et de jeunesse propose à Zindel d'écrire un roman pour adolescents[3]. Ce sera John et Laura (The Pigman), paru en 1968.
-Il meurt le 27 mars 2003 d'un cancer du poumon au Beth Israel Medical Center de Manhattan[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une maîtrise de chimie, il devient professeur de chimie dans un lycée de Staten Island. Intéressé par le théâtre, il écrit des pièces qu'il fait jouer à New York avec succès.
+Écrite en 1964 et montée au Alley Theatre de Houston, mais n'ayant été produite Off-Broadway qu'en 1971, sa pièce L'Effet des rayons gamma sur les vieux-garçons (The Effect of Gamma Rays on Man-In-The-Moon Marigolds) reçoit le prix Pulitzer. Enthousiasmée par cette pièce qu'elle a vue à Houston, une éditrice de littérature d'enfance et de jeunesse propose à Zindel d'écrire un roman pour adolescents. Ce sera John et Laura (The Pigman), paru en 1968.
+Il meurt le 27 mars 2003 d'un cancer du poumon au Beth Israel Medical Center de Manhattan.
 </t>
         </is>
       </c>
@@ -546,26 +560,106 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Théâtre
-The Effect of Gamma Rays on Man-in-the-Moon Marigolds, 1964 Publié en français sous le titre L'Effet des rayons gamma sur les vieux-garçons, traduit par Michel Tremblay, Ottawa, Leméac, 1970
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Effect of Gamma Rays on Man-in-the-Moon Marigolds, 1964 Publié en français sous le titre L'Effet des rayons gamma sur les vieux-garçons, traduit par Michel Tremblay, Ottawa, Leméac, 1970
 And Miss Reardon Drinks A Little, 1967 Publié en français sous le titre Et mademoiselle Roberge boit un peu ..., traduit par Michel Tremblay, Ottawa, Leméac, 1971
 Let Me Hear You Whisper, 1969
 The Secret Affairs of Mildred Wild, 1972
 The Ladies Should Be in Bed, 1973
 Ladies at the Alamo, 1977
 Amulets Against the Dragon Forces, 1989
-Every 17 Minutes the Crowd Goes Crazy, 2000
-Romans pour la jeunesse
-Série The Zone Unknown
-Loch, 1994
+Every 17 Minutes the Crowd Goes Crazy, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série The Zone Unknown</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Loch, 1994
 The Doom Stone, 1995
 Raptor, 1998
 Rats, 1999
 Reef of Death, 1998
 Night of the Bat, 2001
-The Gadget, 2001
-Série P.C. Hawke Mysteries
-Harry and Hortense at Hormone High, 1985 Publié en français sous le titre Signé Icare,  ill. par Edmond Baudoin, Paris, Hachette jeunesse, 1992  (ISBN 2-01-019523-X)
+The Gadget, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série P.C. Hawke Mysteries</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Harry and Hortense at Hormone High, 1985 Publié en français sous le titre Signé Icare,  ill. par Edmond Baudoin, Paris, Hachette jeunesse, 1992  (ISBN 2-01-019523-X)
 The Scream Museum, 2001
 The Surfing Corpse, 2001
 The E-Mail Murders, 2001
@@ -573,18 +667,132 @@
 The Square Root of Murder, 2002
 Death on the Amazon, 2002
 The Gourmet Zombie, 2002
-The Phantom of 86th Street, 2002
-Série The Wacky Facts Lunch Bunch
-Attack of the Killer Fishsticks, 1993
+The Phantom of 86th Street, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série The Wacky Facts Lunch Bunch</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Attack of the Killer Fishsticks, 1993
 Fifth Grade Safari, 1992
 Fright Party, 1993
-One Hundred Percent Laugh Riot, 1994
-Série The Pigman Trilogy
-The Pigman, 1968 Publié en français sous le titre John et Laura, Paris, Hachette, 1974  (ISBN 2-01-000578-3)
+One Hundred Percent Laugh Riot, 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série The Pigman Trilogy</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Pigman, 1968 Publié en français sous le titre John et Laura, Paris, Hachette, 1974  (ISBN 2-01-000578-3)
 The Pigman's Legacy, 1981
-The Pigman &amp; Me, 1992 Publié en français sous le titre Nonno Frankie et moi, Paris, Hachette jeunesse, 1994  (ISBN 2-01-021229-0)
-Autres romans pour la jeunesse
-My Darling, My Hamburger, 1969
+The Pigman &amp; Me, 1992 Publié en français sous le titre Nonno Frankie et moi, Paris, Hachette jeunesse, 1994  (ISBN 2-01-021229-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>My Darling, My Hamburger, 1969
 I Never Loved Your Mind, 1970 Publié en français sous le titre Les Atomes crochus, Paris, Hachette, 1979  (ISBN 2-01-005962-X)
 I Love My Mother, 1975
 Pardon Me, You're Stepping on My Eyeball!, 1976
@@ -599,75 +807,150 @@
 The Houdini Whodunit, 2002
 Death by CD, 2003
 The Petrified Parrot, 2003
-Camp Megadeath, 2003
-Nouvelles
-Love &amp; Centipedes, 1999
+Camp Megadeath, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Love &amp; Centipedes, 1999
 Rachel’s Vampire, 2001</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul_Zindel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme scénariste
-1972 : Up the Sandbox (en), film américain réalisé par irvin Kershner
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1972 : Up the Sandbox (en), film américain réalisé par irvin Kershner
 1974 : Mame, film américain réalisé par Gene Saks
 1984 : Maria's Lovers, film américain réalisé par Andreï Kontchalovski
 1985 : Runaway Train, film américain réalisé par Andreï Kontchalovski
-1986 : Lisa au pays des jouets (Babes in Toyland), film américain réalisé par Clive Donner
-Adaptation d'une de ses œuvres
-1972 : De l'influence des rayons gamma sur le comportement des marguerites (The Effect of Gamma Rays on Man-in-the-Moon Marigolds), film américain réalisé par Paul Newman</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Paul_Zindel</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+1986 : Lisa au pays des jouets (Babes in Toyland), film américain réalisé par Clive Donner</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Adaptation d'une de ses œuvres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1972 : De l'influence des rayons gamma sur le comportement des marguerites (The Effect of Gamma Rays on Man-in-the-Moon Marigolds), film américain réalisé par Paul Newman</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Zindel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1971 : Prix Pulitzer pour The Effect of Gamma Rays on Man-in-the-Moon Marigolds
 2002 : Margaret Edwards Award pour l'ensemble de son œuvre pour la jeunesse</t>
